--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H2">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I2">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J2">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>1366.031107190672</v>
+        <v>1330.367519447475</v>
       </c>
       <c r="R2">
-        <v>12294.27996471605</v>
+        <v>11973.30767502727</v>
       </c>
       <c r="S2">
-        <v>0.008349195893633669</v>
+        <v>0.007109052866026918</v>
       </c>
       <c r="T2">
-        <v>0.009555832422209788</v>
+        <v>0.007923650762563055</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H3">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I3">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J3">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>1461.85004402238</v>
+        <v>1613.89695248825</v>
       </c>
       <c r="R3">
-        <v>13156.65039620142</v>
+        <v>14525.07257239425</v>
       </c>
       <c r="S3">
-        <v>0.008934842201185855</v>
+        <v>0.008624142267336588</v>
       </c>
       <c r="T3">
-        <v>0.01022611708733806</v>
+        <v>0.009612348190515638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H4">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I4">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J4">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>734.042664550424</v>
+        <v>911.1248080202334</v>
       </c>
       <c r="R4">
-        <v>6606.383980953817</v>
+        <v>8200.1232721821</v>
       </c>
       <c r="S4">
-        <v>0.004486476163211466</v>
+        <v>0.004868755688243633</v>
       </c>
       <c r="T4">
-        <v>0.005134867468444208</v>
+        <v>0.005426646903449656</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H5">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I5">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J5">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>1672.772547850713</v>
+        <v>993.6502710490627</v>
       </c>
       <c r="R5">
-        <v>10036.63528710428</v>
+        <v>5961.901626294375</v>
       </c>
       <c r="S5">
-        <v>0.01022400267020337</v>
+        <v>0.00530974501704877</v>
       </c>
       <c r="T5">
-        <v>0.007801059123564625</v>
+        <v>0.00394544495553571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.883086</v>
+        <v>10.911025</v>
       </c>
       <c r="H6">
-        <v>29.649258</v>
+        <v>32.733075</v>
       </c>
       <c r="I6">
-        <v>0.03712034544454516</v>
+        <v>0.03114956057965708</v>
       </c>
       <c r="J6">
-        <v>0.03858449594745096</v>
+        <v>0.03274614149636444</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>838.6485707856822</v>
+        <v>980.19880482075</v>
       </c>
       <c r="R6">
-        <v>7547.83713707114</v>
+        <v>8821.789243386749</v>
       </c>
       <c r="S6">
-        <v>0.005125828516310801</v>
+        <v>0.005237864741001166</v>
       </c>
       <c r="T6">
-        <v>0.005866619845894271</v>
+        <v>0.005838050684300382</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>378.459426</v>
       </c>
       <c r="I7">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J7">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>17436.77189916612</v>
+        <v>15381.69352494794</v>
       </c>
       <c r="R7">
-        <v>156930.9470924951</v>
+        <v>138435.2417245314</v>
       </c>
       <c r="S7">
-        <v>0.1065737255706755</v>
+        <v>0.082194785154777</v>
       </c>
       <c r="T7">
-        <v>0.1219758974562435</v>
+        <v>0.09161315639988227</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>378.459426</v>
       </c>
       <c r="I8">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J8">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>18659.85747632486</v>
       </c>
       <c r="R8">
-        <v>167938.7172869238</v>
+        <v>167938.7172869237</v>
       </c>
       <c r="S8">
-        <v>0.1140492369441884</v>
+        <v>0.09971223089302012</v>
       </c>
       <c r="T8">
-        <v>0.1305317793478257</v>
+        <v>0.1111378560888241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>378.459426</v>
       </c>
       <c r="I9">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J9">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>9369.724041163661</v>
+        <v>10534.41425401365</v>
       </c>
       <c r="R9">
-        <v>84327.51637047295</v>
+        <v>94809.7282861228</v>
       </c>
       <c r="S9">
-        <v>0.05726784776508382</v>
+        <v>0.05629249568233111</v>
       </c>
       <c r="T9">
-        <v>0.0655442707771462</v>
+        <v>0.06274282731409238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>378.459426</v>
       </c>
       <c r="I10">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J10">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>21352.18824997706</v>
+        <v>11488.57268148418</v>
       </c>
       <c r="R10">
-        <v>128113.1294998624</v>
+        <v>68931.43608890506</v>
       </c>
       <c r="S10">
-        <v>0.1305047897653168</v>
+        <v>0.06139120908618081</v>
       </c>
       <c r="T10">
-        <v>0.09957700655093396</v>
+        <v>0.04561718791120725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>378.459426</v>
       </c>
       <c r="I11">
-        <v>0.473824492669067</v>
+        <v>0.3601508510009905</v>
       </c>
       <c r="J11">
-        <v>0.4925137144670405</v>
+        <v>0.3786105006764219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>10704.97132559842</v>
+        <v>11333.04698804946</v>
       </c>
       <c r="R11">
-        <v>96344.7419303858</v>
+        <v>101997.4228924451</v>
       </c>
       <c r="S11">
-        <v>0.0654288926238025</v>
+        <v>0.0605601301846814</v>
       </c>
       <c r="T11">
-        <v>0.07488476033489117</v>
+        <v>0.06749947296241583</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H12">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I12">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J12">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>7569.038737037117</v>
+        <v>5876.697748789546</v>
       </c>
       <c r="R12">
-        <v>68121.34863333406</v>
+        <v>52890.27973910591</v>
       </c>
       <c r="S12">
-        <v>0.04626204103945313</v>
+        <v>0.03140316819457326</v>
       </c>
       <c r="T12">
-        <v>0.05294789070879147</v>
+        <v>0.03500153146995659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H13">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I13">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J13">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>8099.961671956547</v>
+        <v>7129.146231264755</v>
       </c>
       <c r="R13">
-        <v>72899.65504760893</v>
+        <v>64162.3160813828</v>
       </c>
       <c r="S13">
-        <v>0.04950704736817541</v>
+        <v>0.03809584697974783</v>
       </c>
       <c r="T13">
-        <v>0.05666186952559284</v>
+        <v>0.04246109751329868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H14">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I14">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J14">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>4067.255374620535</v>
+        <v>4024.756339798938</v>
       </c>
       <c r="R14">
-        <v>36605.29837158482</v>
+        <v>36222.80705819045</v>
       </c>
       <c r="S14">
-        <v>0.02485910583835724</v>
+        <v>0.02150699349935333</v>
       </c>
       <c r="T14">
-        <v>0.0284517757857918</v>
+        <v>0.02397139375006927</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H15">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I15">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J15">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>9268.66170637434</v>
+        <v>4389.300118649429</v>
       </c>
       <c r="R15">
-        <v>55611.97023824604</v>
+        <v>26335.80071189658</v>
       </c>
       <c r="S15">
-        <v>0.05665015375637317</v>
+        <v>0.02345499730878614</v>
       </c>
       <c r="T15">
-        <v>0.04322487122391401</v>
+        <v>0.0174284076762483</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.76116933333333</v>
+        <v>48.19780633333333</v>
       </c>
       <c r="H16">
-        <v>164.283508</v>
+        <v>144.593419</v>
       </c>
       <c r="I16">
-        <v>0.2056800398782896</v>
+        <v>0.1375984830193998</v>
       </c>
       <c r="J16">
-        <v>0.2137927481577795</v>
+        <v>0.1446511382757993</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>4646.866008851155</v>
+        <v>4329.880296572989</v>
       </c>
       <c r="R16">
-        <v>41821.79407966039</v>
+        <v>38968.92266915691</v>
       </c>
       <c r="S16">
-        <v>0.02840169187593071</v>
+        <v>0.02313747703693918</v>
       </c>
       <c r="T16">
-        <v>0.03250634091368932</v>
+        <v>0.02578870786622649</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H17">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I17">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J17">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>4189.312181799974</v>
+        <v>6247.003701572625</v>
       </c>
       <c r="R17">
-        <v>25135.87309079985</v>
+        <v>37482.02220943575</v>
       </c>
       <c r="S17">
-        <v>0.02560511827389277</v>
+        <v>0.0333819631940428</v>
       </c>
       <c r="T17">
-        <v>0.01953706859864593</v>
+        <v>0.02480471244229715</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H18">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I18">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J18">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>4483.167451422445</v>
+        <v>7578.372208258749</v>
       </c>
       <c r="R18">
-        <v>26899.00470853467</v>
+        <v>45470.2332495525</v>
       </c>
       <c r="S18">
-        <v>0.02740116464321757</v>
+        <v>0.04049636501146379</v>
       </c>
       <c r="T18">
-        <v>0.0209074774656741</v>
+        <v>0.03009112086154722</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H19">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I19">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J19">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>2251.144838777652</v>
+        <v>4278.366665672167</v>
       </c>
       <c r="R19">
-        <v>13506.86903266591</v>
+        <v>25670.199994033</v>
       </c>
       <c r="S19">
-        <v>0.01375901994102506</v>
+        <v>0.02286220488842263</v>
       </c>
       <c r="T19">
-        <v>0.01049832746572494</v>
+        <v>0.01698792892310791</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H20">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I20">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J20">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>5130.019642454175</v>
+        <v>4665.881292629688</v>
       </c>
       <c r="R20">
-        <v>20520.0785698167</v>
+        <v>18663.52517051875</v>
       </c>
       <c r="S20">
-        <v>0.03135473175360127</v>
+        <v>0.02493295746553294</v>
       </c>
       <c r="T20">
-        <v>0.01594940351663576</v>
+        <v>0.01235107786947928</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>30.3092165</v>
+        <v>51.234875</v>
       </c>
       <c r="H21">
-        <v>60.618433</v>
+        <v>102.46975</v>
       </c>
       <c r="I21">
-        <v>0.1138398053637809</v>
+        <v>0.1462689199780642</v>
       </c>
       <c r="J21">
-        <v>0.07888668520572513</v>
+        <v>0.102510654211286</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>2571.947780213469</v>
+        <v>4602.71727359625</v>
       </c>
       <c r="R21">
-        <v>15431.68668128081</v>
+        <v>27616.3036415775</v>
       </c>
       <c r="S21">
-        <v>0.01571977075204423</v>
+        <v>0.02459542941860202</v>
       </c>
       <c r="T21">
-        <v>0.01199440815904439</v>
+        <v>0.01827581411485444</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H22">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I22">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J22">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>6238.910590138119</v>
+        <v>13873.26757471638</v>
       </c>
       <c r="R22">
-        <v>56150.19531124307</v>
+        <v>124859.4081724474</v>
       </c>
       <c r="S22">
-        <v>0.03813228440094229</v>
+        <v>0.0741342457414751</v>
       </c>
       <c r="T22">
-        <v>0.04364321118507904</v>
+        <v>0.08262899205724546</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H23">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I23">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J23">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>6676.532966808986</v>
+        <v>16829.95407854499</v>
       </c>
       <c r="R23">
-        <v>60088.79670128088</v>
+        <v>151469.586706905</v>
       </c>
       <c r="S23">
-        <v>0.0408070367773921</v>
+        <v>0.08993382018742638</v>
       </c>
       <c r="T23">
-        <v>0.0467045222150132</v>
+        <v>0.1002389764624957</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H24">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I24">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J24">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>3352.505319512914</v>
+        <v>9501.343103202429</v>
       </c>
       <c r="R24">
-        <v>30172.54787561622</v>
+        <v>85512.08792882186</v>
       </c>
       <c r="S24">
-        <v>0.02049054629848577</v>
+        <v>0.05077209825971937</v>
       </c>
       <c r="T24">
-        <v>0.02345186640274706</v>
+        <v>0.05658986965972417</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H25">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I25">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J25">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>7639.854106354132</v>
+        <v>10361.93073300401</v>
       </c>
       <c r="R25">
-        <v>45839.1246381248</v>
+        <v>62171.58439802407</v>
       </c>
       <c r="S25">
-        <v>0.04669486529037645</v>
+        <v>0.05537079964612208</v>
       </c>
       <c r="T25">
-        <v>0.03562884485141341</v>
+        <v>0.0411436785469588</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>45.13783733333333</v>
+        <v>113.7817686666667</v>
       </c>
       <c r="H26">
-        <v>135.413512</v>
+        <v>341.3453060000001</v>
       </c>
       <c r="I26">
-        <v>0.1695353166443174</v>
+        <v>0.3248321854218885</v>
       </c>
       <c r="J26">
-        <v>0.176222356222004</v>
+        <v>0.3414815653401283</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>3830.259371208204</v>
+        <v>10221.65687068426</v>
       </c>
       <c r="R26">
-        <v>34472.33434087384</v>
+        <v>91994.91183615835</v>
       </c>
       <c r="S26">
-        <v>0.02341058387712079</v>
+        <v>0.05462122158714553</v>
       </c>
       <c r="T26">
-        <v>0.02679391156775127</v>
+        <v>0.06088004861370414</v>
       </c>
     </row>
   </sheetData>
